--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -376,6 +376,21 @@
   </si>
   <si>
     <t>51527554</t>
+  </si>
+  <si>
+    <t>51528308</t>
+  </si>
+  <si>
+    <t>51528312</t>
+  </si>
+  <si>
+    <t>01-26-2022</t>
+  </si>
+  <si>
+    <t>51528316</t>
+  </si>
+  <si>
+    <t>51528318</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="130">
+  <fills count="144">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,8 +1060,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="129">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -1570,11 +1655,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1644,7 +1778,14 @@
     <xf applyBorder="true" applyFill="true" borderId="122" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="124" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="126" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="128" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="142" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2162,8 +2303,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="64" t="s">
-        <v>113</v>
+      <c r="Q2" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2246,11 +2387,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="68" t="s">
-        <v>116</v>
+      <c r="Q3" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="75" t="s">
+        <v>121</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2277,8 +2418,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="66" t="s">
-        <v>115</v>
+      <c r="AD3" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2332,8 +2473,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="69" t="s">
-        <v>117</v>
+      <c r="Q4" s="76" t="s">
+        <v>122</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>51528318</t>
+  </si>
+  <si>
+    <t>51532617</t>
+  </si>
+  <si>
+    <t>51532618</t>
+  </si>
+  <si>
+    <t>03-01-2022</t>
+  </si>
+  <si>
+    <t>51532619</t>
+  </si>
+  <si>
+    <t>51532620</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="144">
+  <fills count="158">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,8 +1145,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -1704,11 +1789,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1785,7 +1919,14 @@
     <xf applyBorder="true" applyFill="true" borderId="136" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="138" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="140" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="142" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="156" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2303,8 +2444,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="71" t="s">
-        <v>118</v>
+      <c r="Q2" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2387,11 +2528,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="R3" s="75" t="s">
-        <v>121</v>
+      <c r="Q3" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2418,8 +2559,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="73" t="s">
-        <v>120</v>
+      <c r="AD3" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2473,8 +2614,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="76" t="s">
-        <v>122</v>
+      <c r="Q4" s="83" t="s">
+        <v>127</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>51532620</t>
+  </si>
+  <si>
+    <t>51538950</t>
+  </si>
+  <si>
+    <t>51538954</t>
+  </si>
+  <si>
+    <t>05-09-2022</t>
+  </si>
+  <si>
+    <t>51538958</t>
+  </si>
+  <si>
+    <t>51538959</t>
   </si>
 </sst>
 </file>
@@ -428,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="158">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,8 +1230,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="157">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -1838,11 +1923,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1926,7 +2060,14 @@
     <xf applyBorder="true" applyFill="true" borderId="150" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="152" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="154" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="156" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2444,8 +2585,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="78" t="s">
-        <v>123</v>
+      <c r="Q2" s="85" t="s">
+        <v>128</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2528,11 +2669,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="82" t="s">
-        <v>126</v>
+      <c r="Q3" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="89" t="s">
+        <v>131</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2559,8 +2700,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="80" t="s">
-        <v>125</v>
+      <c r="AD3" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2614,8 +2755,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="83" t="s">
-        <v>127</v>
+      <c r="Q4" s="90" t="s">
+        <v>132</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -421,6 +421,39 @@
   </si>
   <si>
     <t>51538959</t>
+  </si>
+  <si>
+    <t>51539061</t>
+  </si>
+  <si>
+    <t>51539062</t>
+  </si>
+  <si>
+    <t>51539105</t>
+  </si>
+  <si>
+    <t>05-11-2022</t>
+  </si>
+  <si>
+    <t>51539116</t>
+  </si>
+  <si>
+    <t>51539119</t>
+  </si>
+  <si>
+    <t>51539144</t>
+  </si>
+  <si>
+    <t>51539148</t>
+  </si>
+  <si>
+    <t>51539149</t>
+  </si>
+  <si>
+    <t>51539150</t>
+  </si>
+  <si>
+    <t>51539157</t>
   </si>
 </sst>
 </file>
@@ -443,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="172">
+  <fills count="204">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,8 +1333,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="203">
     <border>
       <left/>
       <right/>
@@ -1972,11 +2165,123 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2067,7 +2372,23 @@
     <xf applyBorder="true" applyFill="true" borderId="164" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="166" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="168" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="170" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="180" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="182" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="184" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="186" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="188" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="190" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="192" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="194" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="196" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="198" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="200" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="202" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2585,8 +2906,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="85" t="s">
-        <v>128</v>
+      <c r="Q2" s="106" t="s">
+        <v>143</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2669,11 +2990,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="89" t="s">
-        <v>131</v>
+      <c r="Q3" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>141</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -2700,8 +3021,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="87" t="s">
-        <v>130</v>
+      <c r="AD3" s="102" t="s">
+        <v>136</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -2755,8 +3076,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="90" t="s">
-        <v>132</v>
+      <c r="Q4" s="105" t="s">
+        <v>142</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -454,6 +454,36 @@
   </si>
   <si>
     <t>51539157</t>
+  </si>
+  <si>
+    <t>51539499</t>
+  </si>
+  <si>
+    <t>51539500</t>
+  </si>
+  <si>
+    <t>05-16-2022</t>
+  </si>
+  <si>
+    <t>51539501</t>
+  </si>
+  <si>
+    <t>51539502</t>
+  </si>
+  <si>
+    <t>51540115</t>
+  </si>
+  <si>
+    <t>51540116</t>
+  </si>
+  <si>
+    <t>05-24-2022</t>
+  </si>
+  <si>
+    <t>51540117</t>
+  </si>
+  <si>
+    <t>51540118</t>
   </si>
 </sst>
 </file>
@@ -476,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="204">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1493,8 +1523,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="203">
+  <borders count="231">
     <border>
       <left/>
       <right/>
@@ -2277,11 +2447,109 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2388,7 +2656,21 @@
     <xf applyBorder="true" applyFill="true" borderId="196" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="198" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="200" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="203" borderId="202" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="202" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="204" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="206" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="208" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="210" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="212" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="214" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="216" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="218" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="220" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="222" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="224" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="226" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="228" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="230" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2906,8 +3188,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="106" t="s">
-        <v>143</v>
+      <c r="Q2" s="115" t="s">
+        <v>149</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -2990,11 +3272,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="R3" s="104" t="s">
-        <v>141</v>
+      <c r="Q3" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="119" t="s">
+        <v>152</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -3021,8 +3303,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="102" t="s">
-        <v>136</v>
+      <c r="AD3" s="117" t="s">
+        <v>151</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -3076,8 +3358,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="105" t="s">
-        <v>142</v>
+      <c r="Q4" s="120" t="s">
+        <v>153</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>51540118</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>51540586</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="232">
+  <fills count="238">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,8 +1669,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="231">
+  <borders count="237">
     <border>
       <left/>
       <right/>
@@ -2545,11 +2581,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2670,7 +2727,10 @@
     <xf applyBorder="true" applyFill="true" borderId="224" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="226" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="228" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="230" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="230" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="232" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="234" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="236" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3188,8 +3248,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="115" t="s">
-        <v>149</v>
+      <c r="Q2" s="123" t="s">
+        <v>155</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -490,6 +490,18 @@
   </si>
   <si>
     <t>51540586</t>
+  </si>
+  <si>
+    <t>51540587</t>
+  </si>
+  <si>
+    <t>51540640</t>
+  </si>
+  <si>
+    <t>51540641</t>
+  </si>
+  <si>
+    <t>51540772</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="238">
+  <fills count="252">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,8 +1711,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="237">
+  <borders count="251">
     <border>
       <left/>
       <right/>
@@ -2602,11 +2684,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2730,7 +2861,14 @@
     <xf applyBorder="true" applyFill="true" borderId="230" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="232" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="234" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="236" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="236" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="238" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="240" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="242" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="244" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="246" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="248" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="251" borderId="250" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3248,8 +3386,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="123" t="s">
-        <v>155</v>
+      <c r="Q2" s="128" t="s">
+        <v>157</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -3332,8 +3470,8 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="118" t="s">
-        <v>150</v>
+      <c r="Q3" s="130" t="s">
+        <v>159</v>
       </c>
       <c r="R3" s="119" t="s">
         <v>152</v>

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>51540772</t>
+  </si>
+  <si>
+    <t>51541535</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="252">
+  <fills count="254">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,8 +1784,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="251">
+  <borders count="253">
     <border>
       <left/>
       <right/>
@@ -2733,11 +2746,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2868,7 +2888,8 @@
     <xf applyBorder="true" applyFill="true" borderId="244" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="246" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="248" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="251" borderId="250" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="250" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="252" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3470,8 +3491,8 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="130" t="s">
-        <v>159</v>
+      <c r="Q3" s="131" t="s">
+        <v>160</v>
       </c>
       <c r="R3" s="119" t="s">
         <v>152</v>

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -505,6 +505,21 @@
   </si>
   <si>
     <t>51541535</t>
+  </si>
+  <si>
+    <t>51542051</t>
+  </si>
+  <si>
+    <t>51542054</t>
+  </si>
+  <si>
+    <t>06-21-2022</t>
+  </si>
+  <si>
+    <t>51542055</t>
+  </si>
+  <si>
+    <t>51542056</t>
   </si>
 </sst>
 </file>
@@ -527,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="254">
+  <fills count="268">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,8 +1809,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="253">
+  <borders count="267">
     <border>
       <left/>
       <right/>
@@ -2753,11 +2838,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -2889,7 +3023,14 @@
     <xf applyBorder="true" applyFill="true" borderId="246" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="248" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="250" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="253" borderId="252" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="252" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="254" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="256" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="258" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="260" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="262" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="264" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="267" borderId="266" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3407,8 +3548,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="128" t="s">
-        <v>157</v>
+      <c r="Q2" s="133" t="s">
+        <v>161</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -3491,11 +3632,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="R3" s="119" t="s">
-        <v>152</v>
+      <c r="Q3" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="137" t="s">
+        <v>164</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -3522,8 +3663,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="117" t="s">
-        <v>151</v>
+      <c r="AD3" s="135" t="s">
+        <v>163</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -3577,8 +3718,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="120" t="s">
-        <v>153</v>
+      <c r="Q4" s="138" t="s">
+        <v>165</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -520,6 +520,21 @@
   </si>
   <si>
     <t>51542056</t>
+  </si>
+  <si>
+    <t>51545894</t>
+  </si>
+  <si>
+    <t>51545895</t>
+  </si>
+  <si>
+    <t>08-20-2022</t>
+  </si>
+  <si>
+    <t>51545896</t>
+  </si>
+  <si>
+    <t>51545897</t>
   </si>
 </sst>
 </file>
@@ -542,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="268">
+  <fills count="282">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1879,8 +1894,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="267">
+  <borders count="281">
     <border>
       <left/>
       <right/>
@@ -2887,11 +2972,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -3030,7 +3164,14 @@
     <xf applyBorder="true" applyFill="true" borderId="260" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="262" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="264" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="267" borderId="266" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="266" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="268" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="270" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="272" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="274" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="276" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="278" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="281" borderId="280" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3548,8 +3689,8 @@
       <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="133" t="s">
-        <v>161</v>
+      <c r="Q2" s="140" t="s">
+        <v>166</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
@@ -3632,11 +3773,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="137" t="s">
-        <v>164</v>
+      <c r="Q3" s="143" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="144" t="s">
+        <v>169</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -3663,8 +3804,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="135" t="s">
-        <v>163</v>
+      <c r="AD3" s="142" t="s">
+        <v>168</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -3718,8 +3859,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="138" t="s">
-        <v>165</v>
+      <c r="Q4" s="145" t="s">
+        <v>170</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">

--- a/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
+++ b/testdata/FCfiles/qa/CustomOrder/QA_538.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="177">
   <si>
     <t>serviceLevel</t>
   </si>
@@ -535,6 +535,24 @@
   </si>
   <si>
     <t>51545897</t>
+  </si>
+  <si>
+    <t>51545935</t>
+  </si>
+  <si>
+    <t>08-21-2022</t>
+  </si>
+  <si>
+    <t>51545936</t>
+  </si>
+  <si>
+    <t>51545937</t>
+  </si>
+  <si>
+    <t>51545939</t>
+  </si>
+  <si>
+    <t>51545940</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="282">
+  <fills count="296">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1964,8 +1982,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="281">
+  <borders count="295">
     <border>
       <left/>
       <right/>
@@ -3021,11 +3109,60 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -3171,7 +3308,14 @@
     <xf applyBorder="true" applyFill="true" borderId="274" fillId="275" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="276" fillId="277" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="278" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="281" borderId="280" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="280" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="282" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="284" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="286" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="288" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="290" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="292" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="295" borderId="294" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3773,11 +3917,11 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" s="144" t="s">
-        <v>169</v>
+      <c r="Q3" s="152" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="149" t="s">
+        <v>173</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>31</v>
@@ -3804,8 +3948,8 @@
       <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="142" t="s">
-        <v>168</v>
+      <c r="AD3" s="147" t="s">
+        <v>172</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>56</v>
@@ -3859,8 +4003,8 @@
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="145" t="s">
-        <v>170</v>
+      <c r="Q4" s="150" t="s">
+        <v>174</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
